--- a/Data/Loca.GPS.xlsx
+++ b/Data/Loca.GPS.xlsx
@@ -4,20 +4,33 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$115</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Country</t>
   </si>
@@ -28,7 +41,7 @@
     <t>long</t>
   </si>
   <si>
-    <t>American_Samoa</t>
+    <t>American Samoa</t>
   </si>
   <si>
     <t>Angola</t>
@@ -37,7 +50,7 @@
     <t>Anguilla</t>
   </si>
   <si>
-    <t>Antigua_and_Barbuda</t>
+    <t>Antigua and Barbuda</t>
   </si>
   <si>
     <t>Argentina</t>
@@ -70,19 +83,25 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t>British_Virgin_Islands</t>
+    <t>British Virgin Islands</t>
   </si>
   <si>
     <t>Brunei</t>
   </si>
   <si>
-    <t>Burkina_Faso</t>
+    <t>Burkina Faso</t>
   </si>
   <si>
     <t>Cambodia</t>
   </si>
   <si>
-    <t>Cape_Verde</t>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Chile</t>
   </si>
   <si>
     <t>China</t>
@@ -94,13 +113,13 @@
     <t>Comoros</t>
   </si>
   <si>
-    <t>Cook_Islands</t>
-  </si>
-  <si>
-    <t>Costa_Rica</t>
-  </si>
-  <si>
-    <t>Cote_dIvoire</t>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cote dIvoire</t>
   </si>
   <si>
     <t>Cuba</t>
@@ -109,19 +128,22 @@
     <t>Djibouti</t>
   </si>
   <si>
-    <t>Dominican_Republic</t>
+    <t>Dominican Republic</t>
   </si>
   <si>
     <t>Dominica</t>
   </si>
   <si>
-    <t>East_Timor</t>
+    <t>East Timor</t>
   </si>
   <si>
     <t>Ecuador</t>
   </si>
   <si>
-    <t>El_Salvador</t>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
   </si>
   <si>
     <t>Fiji</t>
@@ -130,15 +152,18 @@
     <t>France</t>
   </si>
   <si>
-    <t>French_Guiana</t>
-  </si>
-  <si>
-    <t>French_Polynesia</t>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
   </si>
   <si>
     <t>Gabon</t>
   </si>
   <si>
+    <t>Ghana</t>
+  </si>
+  <si>
     <t>Grenada</t>
   </si>
   <si>
@@ -193,7 +218,7 @@
     <t>Maldives</t>
   </si>
   <si>
-    <t>Marshall_Islands</t>
+    <t>Marshall Islands</t>
   </si>
   <si>
     <t>Martinique</t>
@@ -220,13 +245,16 @@
     <t>Nauru</t>
   </si>
   <si>
-    <t>Netherlands_Antilles</t>
-  </si>
-  <si>
-    <t>New_Caledonia</t>
-  </si>
-  <si>
-    <t>New_Guinea</t>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Guinea</t>
   </si>
   <si>
     <t>Nicaragua</t>
@@ -247,7 +275,7 @@
     <t>Panama</t>
   </si>
   <si>
-    <t>Papua_New_Guinea</t>
+    <t>Papua New Guinea</t>
   </si>
   <si>
     <t>Paraguay</t>
@@ -259,25 +287,28 @@
     <t>Philippines</t>
   </si>
   <si>
-    <t>Puerto_Rico</t>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
   </si>
   <si>
     <t>Reunion</t>
   </si>
   <si>
-    <t>Saint_Kitts_and_Nevis</t>
-  </si>
-  <si>
-    <t>Saint_Lucia</t>
-  </si>
-  <si>
-    <t>Saint_Vincent_and_the_Grenadines</t>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
   </si>
   <si>
     <t>Samoa</t>
   </si>
   <si>
-    <t>Saudi_Arabia</t>
+    <t>Saudi Arabia</t>
   </si>
   <si>
     <t>Senegal</t>
@@ -289,7 +320,7 @@
     <t>Singapore</t>
   </si>
   <si>
-    <t>Solomon_Islands</t>
+    <t>Solomon Islands</t>
   </si>
   <si>
     <t>Somalia</t>
@@ -298,10 +329,13 @@
     <t>Spain</t>
   </si>
   <si>
-    <t>Sri_Lanka</t>
-  </si>
-  <si>
-    <t>South_Korea</t>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Sudan</t>
   </si>
   <si>
     <t>Suriname</t>
@@ -319,7 +353,7 @@
     <t>Tonga</t>
   </si>
   <si>
-    <t>Trinidad_and_Tobago</t>
+    <t>Trinidad and Tobago</t>
   </si>
   <si>
     <t>Tuvalu</t>
@@ -340,10 +374,10 @@
     <t>Vietnam</t>
   </si>
   <si>
-    <t>Virgin_Islands</t>
-  </si>
-  <si>
-    <t>Wallis_and_Futuna</t>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
   </si>
   <si>
     <t>Yemen</t>
@@ -352,7 +386,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -375,34 +409,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -416,14 +422,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -463,6 +461,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -513,7 +526,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,49 +562,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,121 +700,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,21 +753,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -766,6 +785,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,152 +858,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -980,68 +1014,68 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1313,12 +1347,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1539,48 +1573,38 @@
         <v>104.916666666666</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
         <v>15.02</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="2">
         <v>-23.34</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1">
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
         <v>23.13</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C23" s="1">
         <v>113.939</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4.58333333333333</v>
-      </c>
-      <c r="C22" s="2">
-        <v>-74.0666666666666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2">
-        <v>-11.4</v>
-      </c>
-      <c r="C23" s="2">
-        <v>43.16</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1588,43 +1612,43 @@
         <v>25</v>
       </c>
       <c r="B24" s="2">
+        <v>4.58333333333333</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-74.0666666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2">
+        <v>-11.4</v>
+      </c>
+      <c r="C25" s="2">
+        <v>43.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2">
         <v>-21.2</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C26" s="2">
         <v>-159.766666666666</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2">
         <v>9.93333333333333</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C27" s="2">
         <v>-84.0833333333333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2">
-        <v>6.49</v>
-      </c>
-      <c r="C26" s="2">
-        <v>-5.17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="2">
-        <v>23.08</v>
-      </c>
-      <c r="C27" s="2">
-        <v>-82.22</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1632,32 +1656,32 @@
         <v>29</v>
       </c>
       <c r="B28" s="2">
+        <v>6.49</v>
+      </c>
+      <c r="C28" s="2">
+        <v>-5.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2">
+        <v>23.08</v>
+      </c>
+      <c r="C29" s="2">
+        <v>-82.22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2">
         <v>11.08</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C30" s="2">
         <v>42.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="2">
-        <v>51.52</v>
-      </c>
-      <c r="C29" s="2">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="2">
-        <v>15.3</v>
-      </c>
-      <c r="C30" s="2">
-        <v>-61.3833333333333</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1665,10 +1689,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="2">
-        <v>-8.55</v>
+        <v>51.52</v>
       </c>
       <c r="C31" s="2">
-        <v>125.56</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1676,10 +1700,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="2">
-        <v>-0.15</v>
+        <v>15.3</v>
       </c>
       <c r="C32" s="2">
-        <v>-78.35</v>
+        <v>-61.3833333333333</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1687,10 +1711,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="2">
-        <v>13.6666666666666</v>
+        <v>-8.55</v>
       </c>
       <c r="C33" s="2">
-        <v>-89.1666666666666</v>
+        <v>125.56</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1698,32 +1722,26 @@
         <v>35</v>
       </c>
       <c r="B34" s="2">
-        <v>-18.1666666666666</v>
+        <v>-0.15</v>
       </c>
       <c r="C34" s="2">
-        <v>178.45</v>
+        <v>-78.35</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="2">
-        <v>48.5</v>
+        <v>13.6666666666666</v>
       </c>
       <c r="C35" s="2">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-89.1666666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B36" s="2">
-        <v>5.05</v>
-      </c>
-      <c r="C36" s="2">
-        <v>-52.18</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1731,10 +1749,10 @@
         <v>38</v>
       </c>
       <c r="B37" s="2">
-        <v>-17.5666666666666</v>
+        <v>-18.1666666666666</v>
       </c>
       <c r="C37" s="2">
-        <v>-149.6</v>
+        <v>178.45</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1742,10 +1760,10 @@
         <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>0.25</v>
+        <v>48.5</v>
       </c>
       <c r="C38" s="2">
-        <v>9.26</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1753,21 +1771,21 @@
         <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>12.0666666666666</v>
+        <v>5.05</v>
       </c>
       <c r="C39" s="2">
-        <v>-61.7333333333333</v>
+        <v>-52.18</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>16</v>
+        <v>-17.5666666666666</v>
       </c>
       <c r="C40" s="2">
-        <v>-61.44</v>
+        <v>-149.6</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1775,21 +1793,15 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>36.9</v>
+        <v>0.25</v>
       </c>
       <c r="C41" s="2">
-        <v>-89.8166666666666</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B42" s="2">
-        <v>14.4</v>
-      </c>
-      <c r="C42" s="2">
-        <v>-90.22</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1797,10 +1809,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>9.29</v>
+        <v>12.0666666666666</v>
       </c>
       <c r="C43" s="2">
-        <v>-13.49</v>
+        <v>-61.7333333333333</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1808,54 +1820,54 @@
         <v>45</v>
       </c>
       <c r="B44" s="2">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2">
+        <v>-61.44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="2">
+        <v>36.9</v>
+      </c>
+      <c r="C45" s="2">
+        <v>-89.8166666666666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="C46" s="2">
+        <v>-90.22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="2">
+        <v>9.29</v>
+      </c>
+      <c r="C47" s="2">
+        <v>-13.49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2">
         <v>6.5</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C48" s="2">
         <v>-58.12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="2">
-        <v>19</v>
-      </c>
-      <c r="C45" s="2">
-        <v>-75.4166666666666</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="2">
-        <v>14.1</v>
-      </c>
-      <c r="C46" s="2">
-        <v>-87.2166666666666</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="2">
-        <v>28.6138888888888</v>
-      </c>
-      <c r="C47" s="2">
-        <v>77.2083333333333</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="2">
-        <v>-6.175</v>
-      </c>
-      <c r="C48" s="2">
-        <v>106.828333333333</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1863,21 +1875,21 @@
         <v>50</v>
       </c>
       <c r="B49" s="2">
-        <v>41.87</v>
+        <v>19</v>
       </c>
       <c r="C49" s="2">
-        <v>12.57</v>
+        <v>-75.4166666666666</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="2">
-        <v>18</v>
+        <v>14.1</v>
       </c>
       <c r="C50" s="2">
-        <v>-76.5</v>
+        <v>-87.2166666666666</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1885,21 +1897,21 @@
         <v>52</v>
       </c>
       <c r="B51" s="2">
-        <v>35.6833333333333</v>
+        <v>28.6138888888888</v>
       </c>
       <c r="C51" s="2">
-        <v>139.766666666666</v>
+        <v>77.2083333333333</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="2">
-        <v>-1.17</v>
+        <v>-6.175</v>
       </c>
       <c r="C52" s="2">
-        <v>36.48</v>
+        <v>106.828333333333</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1907,10 +1919,10 @@
         <v>54</v>
       </c>
       <c r="B53" s="2">
-        <v>17.9666666666666</v>
+        <v>41.87</v>
       </c>
       <c r="C53" s="2">
-        <v>102.6</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1918,10 +1930,10 @@
         <v>55</v>
       </c>
       <c r="B54" s="2">
-        <v>-18.55</v>
+        <v>18</v>
       </c>
       <c r="C54" s="2">
-        <v>47.31</v>
+        <v>-76.5</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1929,10 +1941,10 @@
         <v>56</v>
       </c>
       <c r="B55" s="2">
-        <v>3.13333333333333</v>
+        <v>35.6833333333333</v>
       </c>
       <c r="C55" s="2">
-        <v>101.683333333333</v>
+        <v>139.766666666666</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1940,10 +1952,10 @@
         <v>57</v>
       </c>
       <c r="B56" s="2">
-        <v>4</v>
+        <v>-1.17</v>
       </c>
       <c r="C56" s="2">
-        <v>73.28</v>
+        <v>36.48</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1951,21 +1963,21 @@
         <v>58</v>
       </c>
       <c r="B57" s="2">
-        <v>7.11666666666666</v>
+        <v>17.9666666666666</v>
       </c>
       <c r="C57" s="2">
-        <v>171.066666666666</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="2">
-        <v>14.6666666666666</v>
+        <v>-18.55</v>
       </c>
       <c r="C58" s="2">
-        <v>-61</v>
+        <v>47.31</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1973,43 +1985,43 @@
         <v>60</v>
       </c>
       <c r="B59" s="2">
-        <v>19.4333333333333</v>
+        <v>3.13333333333333</v>
       </c>
       <c r="C59" s="2">
-        <v>-99.1333333333333</v>
+        <v>101.683333333333</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C60" s="2">
-        <v>158.09</v>
+        <v>73.28</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="2">
-        <v>16.742498</v>
+        <v>7.11666666666666</v>
       </c>
       <c r="C61" s="2">
-        <v>-62.187366</v>
+        <v>171.066666666666</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B62" s="2">
-        <v>47.02</v>
+        <v>14.6666666666666</v>
       </c>
       <c r="C62" s="2">
-        <v>28.5</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2017,21 +2029,21 @@
         <v>64</v>
       </c>
       <c r="B63" s="2">
-        <v>19.75</v>
+        <v>19.4333333333333</v>
       </c>
       <c r="C63" s="2">
-        <v>96.1</v>
+        <v>-99.1333333333333</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B64" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C64" s="2">
-        <v>0</v>
+        <v>158.09</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2039,10 +2051,10 @@
         <v>66</v>
       </c>
       <c r="B65" s="2">
-        <v>-0.522778</v>
+        <v>16.742498</v>
       </c>
       <c r="C65" s="2">
-        <v>166.931503</v>
+        <v>-62.187366</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2050,10 +2062,10 @@
         <v>67</v>
       </c>
       <c r="B66" s="2">
-        <v>12.05</v>
+        <v>47.02</v>
       </c>
       <c r="C66" s="2">
-        <v>-69</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2061,10 +2073,10 @@
         <v>68</v>
       </c>
       <c r="B67" s="2">
-        <v>-22.2666666666666</v>
+        <v>19.75</v>
       </c>
       <c r="C67" s="2">
-        <v>166.466666666666</v>
+        <v>96.1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2072,10 +2084,10 @@
         <v>69</v>
       </c>
       <c r="B68" s="2">
-        <v>-6.314993</v>
+        <v>0</v>
       </c>
       <c r="C68" s="2">
-        <v>143.95555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2083,21 +2095,15 @@
         <v>70</v>
       </c>
       <c r="B69" s="2">
-        <v>12.06</v>
+        <v>-0.522778</v>
       </c>
       <c r="C69" s="2">
-        <v>-86.2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>166.931503</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
       <c r="A70" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B70" s="2">
-        <v>13.27</v>
-      </c>
-      <c r="C70" s="2">
-        <v>2.06</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2105,10 +2111,10 @@
         <v>72</v>
       </c>
       <c r="B71" s="2">
-        <v>9.05</v>
+        <v>12.05</v>
       </c>
       <c r="C71" s="2">
-        <v>7.32</v>
+        <v>-69</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2116,10 +2122,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="2">
-        <v>33.6666666666666</v>
+        <v>-22.2666666666666</v>
       </c>
       <c r="C72" s="2">
-        <v>73.1666666666666</v>
+        <v>166.466666666666</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2127,10 +2133,10 @@
         <v>74</v>
       </c>
       <c r="B73" s="2">
-        <v>7.2</v>
+        <v>-6.314993</v>
       </c>
       <c r="C73" s="2">
-        <v>134.28</v>
+        <v>143.95555</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2138,21 +2144,21 @@
         <v>75</v>
       </c>
       <c r="B74" s="2">
-        <v>9</v>
+        <v>12.06</v>
       </c>
       <c r="C74" s="2">
-        <v>-79.25</v>
+        <v>-86.2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B75" s="2">
-        <v>-9.5</v>
+        <v>13.27</v>
       </c>
       <c r="C75" s="2">
-        <v>147.116666666666</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2160,10 +2166,10 @@
         <v>77</v>
       </c>
       <c r="B76" s="2">
-        <v>-25.1</v>
+        <v>9.05</v>
       </c>
       <c r="C76" s="2">
-        <v>-57.3</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2171,43 +2177,43 @@
         <v>78</v>
       </c>
       <c r="B77" s="2">
-        <v>-12.0433333333333</v>
+        <v>33.6666666666666</v>
       </c>
       <c r="C77" s="2">
-        <v>-77.0283333333333</v>
+        <v>73.1666666666666</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B78" s="2">
-        <v>14.5833333333333</v>
+        <v>7.2</v>
       </c>
       <c r="C78" s="2">
-        <v>120.966666666666</v>
+        <v>134.28</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B79" s="2">
-        <v>18.45</v>
+        <v>9</v>
       </c>
       <c r="C79" s="2">
-        <v>-66.1</v>
+        <v>-79.25</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B80" s="2">
-        <v>-21.115141</v>
+        <v>-9.5</v>
       </c>
       <c r="C80" s="2">
-        <v>55.536384</v>
+        <v>147.116666666666</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2215,32 +2221,32 @@
         <v>82</v>
       </c>
       <c r="B81" s="2">
-        <v>17.17</v>
+        <v>-25.1</v>
       </c>
       <c r="C81" s="2">
-        <v>-62.43</v>
+        <v>-57.3</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B82" s="2">
-        <v>14.02</v>
+        <v>-12.0433333333333</v>
       </c>
       <c r="C82" s="2">
-        <v>-60.58</v>
+        <v>-77.0283333333333</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B83" s="2">
-        <v>13.1</v>
+        <v>14.5833333333333</v>
       </c>
       <c r="C83" s="2">
-        <v>-61.1</v>
+        <v>120.966666666666</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2248,10 +2254,10 @@
         <v>85</v>
       </c>
       <c r="B84" s="2">
-        <v>-13.8333333333333</v>
+        <v>18.45</v>
       </c>
       <c r="C84" s="2">
-        <v>-171.75</v>
+        <v>-66.1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2259,21 +2265,21 @@
         <v>86</v>
       </c>
       <c r="B85" s="2">
-        <v>24.41</v>
+        <v>25</v>
       </c>
       <c r="C85" s="2">
-        <v>46.42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B86" s="2">
-        <v>14.5</v>
+        <v>-21.115141</v>
       </c>
       <c r="C86" s="2">
-        <v>-14.45</v>
+        <v>55.536384</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2281,43 +2287,43 @@
         <v>88</v>
       </c>
       <c r="B87" s="2">
-        <v>-4.679574</v>
+        <v>17.17</v>
       </c>
       <c r="C87" s="2">
-        <v>55.491977</v>
+        <v>-62.43</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B88" s="2">
-        <v>1.28333333333333</v>
+        <v>14.02</v>
       </c>
       <c r="C88" s="2">
-        <v>103.833333333333</v>
+        <v>-60.58</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B89" s="2">
-        <v>-9.46666666666666</v>
+        <v>13.1</v>
       </c>
       <c r="C89" s="2">
-        <v>159.816666666666</v>
+        <v>-61.1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B90" s="2">
-        <v>2.02</v>
+        <v>-13.8333333333333</v>
       </c>
       <c r="C90" s="2">
-        <v>45.25</v>
+        <v>-171.75</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2325,32 +2331,32 @@
         <v>92</v>
       </c>
       <c r="B91" s="2">
-        <v>40.25</v>
+        <v>24.41</v>
       </c>
       <c r="C91" s="2">
-        <v>-3.45</v>
+        <v>46.42</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B92" s="2">
-        <v>7.873054</v>
+        <v>14.5</v>
       </c>
       <c r="C92" s="2">
-        <v>80.771797</v>
+        <v>-14.45</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B93" s="2">
-        <v>37.55</v>
+        <v>-4.679574</v>
       </c>
       <c r="C93" s="2">
-        <v>126.966666666666</v>
+        <v>55.491977</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2358,32 +2364,32 @@
         <v>95</v>
       </c>
       <c r="B94" s="2">
-        <v>5.83333333333333</v>
+        <v>1.28333333333333</v>
       </c>
       <c r="C94" s="2">
-        <v>-55.1666666666666</v>
+        <v>103.833333333333</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B95" s="2">
-        <v>-6.08</v>
+        <v>-9.46666666666666</v>
       </c>
       <c r="C95" s="2">
-        <v>35.45</v>
+        <v>159.816666666666</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B96" s="2">
-        <v>13.75</v>
+        <v>2.02</v>
       </c>
       <c r="C96" s="2">
-        <v>100.483333333333</v>
+        <v>45.25</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2391,10 +2397,10 @@
         <v>98</v>
       </c>
       <c r="B97" s="2">
-        <v>6.09</v>
+        <v>40.25</v>
       </c>
       <c r="C97" s="2">
-        <v>1.2</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2402,10 +2408,10 @@
         <v>99</v>
       </c>
       <c r="B98" s="2">
-        <v>-21.1</v>
+        <v>7.873054</v>
       </c>
       <c r="C98" s="2">
-        <v>-174</v>
+        <v>80.771797</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2413,10 +2419,10 @@
         <v>100</v>
       </c>
       <c r="B99" s="2">
-        <v>10.6666666666666</v>
+        <v>37.55</v>
       </c>
       <c r="C99" s="2">
-        <v>-61.5075</v>
+        <v>126.966666666666</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2424,65 +2430,65 @@
         <v>101</v>
       </c>
       <c r="B100" s="2">
-        <v>-8.31</v>
+        <v>15</v>
       </c>
       <c r="C100" s="2">
-        <v>179.13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B101" s="2">
-        <v>0.2</v>
+        <v>5.83333333333333</v>
       </c>
       <c r="C101" s="2">
-        <v>32.3</v>
+        <v>-55.1666666666666</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="1">
-        <v>29.306</v>
-      </c>
-      <c r="C102" s="1">
-        <v>-81.694</v>
+      <c r="B102" s="2">
+        <v>-6.08</v>
+      </c>
+      <c r="C102" s="2">
+        <v>35.45</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B103" s="2">
-        <v>-17.45</v>
+        <v>13.75</v>
       </c>
       <c r="C103" s="2">
-        <v>168.18</v>
+        <v>100.483333333333</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B104" s="2">
-        <v>10.5</v>
+        <v>6.09</v>
       </c>
       <c r="C104" s="2">
-        <v>-66.9166666666666</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B105" s="2">
-        <v>21.0333333333333</v>
+        <v>-21.1</v>
       </c>
       <c r="C105" s="2">
-        <v>105.85</v>
+        <v>-174</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2490,21 +2496,21 @@
         <v>107</v>
       </c>
       <c r="B106" s="2">
-        <v>18.05</v>
+        <v>10.6666666666666</v>
       </c>
       <c r="C106" s="2">
-        <v>-64.05</v>
+        <v>-61.5075</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B107" s="2">
-        <v>-13.2833333333333</v>
+        <v>-8.31</v>
       </c>
       <c r="C107" s="2">
-        <v>-176.183333333333</v>
+        <v>179.13</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2512,20 +2518,100 @@
         <v>109</v>
       </c>
       <c r="B108" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C108" s="2">
+        <v>32.3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="1">
+        <v>29.306</v>
+      </c>
+      <c r="C109" s="1">
+        <v>-81.694</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="2">
+        <v>-17.45</v>
+      </c>
+      <c r="C110" s="2">
+        <v>168.18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="C111" s="2">
+        <v>-66.9166666666666</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="2">
+        <v>21.0333333333333</v>
+      </c>
+      <c r="C112" s="2">
+        <v>105.85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="2">
+        <v>18.05</v>
+      </c>
+      <c r="C113" s="2">
+        <v>-64.05</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="2">
+        <v>-13.2833333333333</v>
+      </c>
+      <c r="C114" s="2">
+        <v>-176.183333333333</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="2">
         <v>15.552727</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C115" s="2">
         <v>48.516388</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C108">
+  <autoFilter ref="A1:C115">
     <extLst/>
   </autoFilter>
   <sortState ref="A1:C112">
     <sortCondition ref="B1"/>
   </sortState>
-  <conditionalFormatting sqref="A1 A8 A72 A99 A96 A104:A107 A109:A1048576 A93:A94 A29:A34 A51 A67 A63 A45:A49 A37 A57:A60 A55 A53 A24:A25 A21:A22 A19 A15 A77:A79 A75 A88:A89 A86 A84">
+  <conditionalFormatting sqref="A1:A21 A101:A1048576 A86:A99 A71:A84 A43:A69 A37:A41 A23:A35">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100 A22 A70 A42 A85 A36">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/Loca.GPS.xlsx
+++ b/Data/Loca.GPS.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27517" windowHeight="4402"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Country</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Gabon</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
   <si>
     <t>Ghana</t>
@@ -388,11 +391,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00000000_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.00000000_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -858,19 +861,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1010,13 +1013,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1347,20 +1350,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.1238938053097" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7522123893805" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="1"/>
+    <col min="4" max="4" width="14.8761061946903" style="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1573,9 +1576,15 @@
         <v>104.916666666666</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="C20" s="2">
+        <v>11.216667</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1739,9 +1748,15 @@
         <v>-89.1666666666666</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="B36" s="2">
+        <v>30</v>
+      </c>
+      <c r="C36" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1799,20 +1814,20 @@
         <v>9.26</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="B42" s="2">
+        <v>53</v>
+      </c>
+      <c r="C42" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B43" s="2">
-        <v>12.0666666666666</v>
-      </c>
-      <c r="C43" s="2">
-        <v>-61.7333333333333</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1820,10 +1835,10 @@
         <v>45</v>
       </c>
       <c r="B44" s="2">
-        <v>16</v>
+        <v>12.0666666666666</v>
       </c>
       <c r="C44" s="2">
-        <v>-61.44</v>
+        <v>-61.7333333333333</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1831,10 +1846,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="2">
-        <v>36.9</v>
+        <v>16</v>
       </c>
       <c r="C45" s="2">
-        <v>-89.8166666666666</v>
+        <v>-61.44</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1842,10 +1857,10 @@
         <v>47</v>
       </c>
       <c r="B46" s="2">
-        <v>14.4</v>
+        <v>36.9</v>
       </c>
       <c r="C46" s="2">
-        <v>-90.22</v>
+        <v>-89.8166666666666</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1853,10 +1868,10 @@
         <v>48</v>
       </c>
       <c r="B47" s="2">
-        <v>9.29</v>
+        <v>14.4</v>
       </c>
       <c r="C47" s="2">
-        <v>-13.49</v>
+        <v>-90.22</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1864,21 +1879,21 @@
         <v>49</v>
       </c>
       <c r="B48" s="2">
+        <v>9.29</v>
+      </c>
+      <c r="C48" s="2">
+        <v>-13.49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="2">
         <v>6.5</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C49" s="2">
         <v>-58.12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="2">
-        <v>19</v>
-      </c>
-      <c r="C49" s="2">
-        <v>-75.4166666666666</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1886,10 +1901,10 @@
         <v>51</v>
       </c>
       <c r="B50" s="2">
-        <v>14.1</v>
+        <v>19</v>
       </c>
       <c r="C50" s="2">
-        <v>-87.2166666666666</v>
+        <v>-75.4166666666666</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1897,10 +1912,10 @@
         <v>52</v>
       </c>
       <c r="B51" s="2">
-        <v>28.6138888888888</v>
+        <v>14.1</v>
       </c>
       <c r="C51" s="2">
-        <v>77.2083333333333</v>
+        <v>-87.2166666666666</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1908,10 +1923,10 @@
         <v>53</v>
       </c>
       <c r="B52" s="2">
-        <v>-6.175</v>
+        <v>28.6138888888888</v>
       </c>
       <c r="C52" s="2">
-        <v>106.828333333333</v>
+        <v>77.2083333333333</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1919,98 +1934,98 @@
         <v>54</v>
       </c>
       <c r="B53" s="2">
+        <v>-6.175</v>
+      </c>
+      <c r="C53" s="2">
+        <v>106.828333333333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="2">
         <v>41.87</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C54" s="2">
         <v>12.57</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="2">
+    <row r="55" spans="1:3">
+      <c r="A55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="2">
         <v>18</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C55" s="2">
         <v>-76.5</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="2">
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="2">
         <v>35.6833333333333</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C56" s="2">
         <v>139.766666666666</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="2">
+    <row r="57" spans="1:3">
+      <c r="A57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="2">
         <v>-1.17</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C57" s="2">
         <v>36.48</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="2">
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="2">
         <v>17.9666666666666</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C58" s="2">
         <v>102.6</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="2">
+    <row r="59" spans="1:3">
+      <c r="A59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="2">
         <v>-18.55</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C59" s="2">
         <v>47.31</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="2">
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="2">
         <v>3.13333333333333</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C60" s="2">
         <v>101.683333333333</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="2">
+    <row r="61" spans="1:3">
+      <c r="A61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="2">
         <v>4</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C61" s="2">
         <v>73.28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="2">
-        <v>7.11666666666666</v>
-      </c>
-      <c r="C61" s="2">
-        <v>171.066666666666</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2018,10 +2033,10 @@
         <v>63</v>
       </c>
       <c r="B62" s="2">
-        <v>14.6666666666666</v>
+        <v>7.11666666666666</v>
       </c>
       <c r="C62" s="2">
-        <v>-61</v>
+        <v>171.066666666666</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2029,10 +2044,10 @@
         <v>64</v>
       </c>
       <c r="B63" s="2">
-        <v>19.4333333333333</v>
+        <v>14.6666666666666</v>
       </c>
       <c r="C63" s="2">
-        <v>-99.1333333333333</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2040,21 +2055,21 @@
         <v>65</v>
       </c>
       <c r="B64" s="2">
+        <v>19.4333333333333</v>
+      </c>
+      <c r="C64" s="2">
+        <v>-99.1333333333333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="2">
         <v>6</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C65" s="2">
         <v>158.09</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="2">
-        <v>16.742498</v>
-      </c>
-      <c r="C65" s="2">
-        <v>-62.187366</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2062,32 +2077,32 @@
         <v>67</v>
       </c>
       <c r="B66" s="2">
+        <v>16.742498</v>
+      </c>
+      <c r="C66" s="2">
+        <v>-62.187366</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="2">
         <v>47.02</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C67" s="2">
         <v>28.5</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="2">
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="2">
         <v>19.75</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C68" s="2">
         <v>96.1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="2">
-        <v>0</v>
-      </c>
-      <c r="C68" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2095,48 +2110,48 @@
         <v>70</v>
       </c>
       <c r="B69" s="2">
-        <v>-0.522778</v>
+        <v>0</v>
       </c>
       <c r="C69" s="2">
-        <v>166.931503</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="B70" s="2">
+        <v>-0.522778</v>
+      </c>
+      <c r="C70" s="2">
+        <v>166.931503</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
       <c r="A71" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="2">
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="2">
         <v>12.05</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C72" s="2">
         <v>-69</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="2">
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="2">
         <v>-22.2666666666666</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C73" s="2">
         <v>166.466666666666</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="2">
-        <v>-6.314993</v>
-      </c>
-      <c r="C73" s="2">
-        <v>143.95555</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2144,10 +2159,10 @@
         <v>75</v>
       </c>
       <c r="B74" s="2">
-        <v>12.06</v>
+        <v>-6.314993</v>
       </c>
       <c r="C74" s="2">
-        <v>-86.2</v>
+        <v>143.95555</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2155,10 +2170,10 @@
         <v>76</v>
       </c>
       <c r="B75" s="2">
-        <v>13.27</v>
+        <v>12.06</v>
       </c>
       <c r="C75" s="2">
-        <v>2.06</v>
+        <v>-86.2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2166,32 +2181,32 @@
         <v>77</v>
       </c>
       <c r="B76" s="2">
+        <v>13.27</v>
+      </c>
+      <c r="C76" s="2">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="2">
         <v>9.05</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C77" s="2">
         <v>7.32</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" s="2">
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="2">
         <v>33.6666666666666</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C78" s="2">
         <v>73.1666666666666</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="C78" s="2">
-        <v>134.28</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2199,43 +2214,43 @@
         <v>80</v>
       </c>
       <c r="B79" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="C79" s="2">
+        <v>134.28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="2">
         <v>9</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C80" s="2">
         <v>-79.25</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="2">
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="2">
         <v>-9.5</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C81" s="2">
         <v>147.116666666666</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" s="2">
+    <row r="82" spans="1:3">
+      <c r="A82" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="2">
         <v>-25.1</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C82" s="2">
         <v>-57.3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" s="2">
-        <v>-12.0433333333333</v>
-      </c>
-      <c r="C82" s="2">
-        <v>-77.0283333333333</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2243,10 +2258,10 @@
         <v>84</v>
       </c>
       <c r="B83" s="2">
-        <v>14.5833333333333</v>
+        <v>-12.0433333333333</v>
       </c>
       <c r="C83" s="2">
-        <v>120.966666666666</v>
+        <v>-77.0283333333333</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2254,21 +2269,21 @@
         <v>85</v>
       </c>
       <c r="B84" s="2">
+        <v>14.5833333333333</v>
+      </c>
+      <c r="C84" s="2">
+        <v>120.966666666666</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="2">
         <v>18.45</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C85" s="2">
         <v>-66.1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" s="2">
-        <v>25</v>
-      </c>
-      <c r="C85" s="2">
-        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2276,10 +2291,10 @@
         <v>87</v>
       </c>
       <c r="B86" s="2">
-        <v>-21.115141</v>
+        <v>25</v>
       </c>
       <c r="C86" s="2">
-        <v>55.536384</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2287,10 +2302,10 @@
         <v>88</v>
       </c>
       <c r="B87" s="2">
-        <v>17.17</v>
+        <v>-21.115141</v>
       </c>
       <c r="C87" s="2">
-        <v>-62.43</v>
+        <v>55.536384</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2298,10 +2313,10 @@
         <v>89</v>
       </c>
       <c r="B88" s="2">
-        <v>14.02</v>
+        <v>17.17</v>
       </c>
       <c r="C88" s="2">
-        <v>-60.58</v>
+        <v>-62.43</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2309,65 +2324,65 @@
         <v>90</v>
       </c>
       <c r="B89" s="2">
+        <v>14.02</v>
+      </c>
+      <c r="C89" s="2">
+        <v>-60.58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="2">
         <v>13.1</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C90" s="2">
         <v>-61.1</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" s="2">
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="2">
         <v>-13.8333333333333</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C91" s="2">
         <v>-171.75</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" s="2">
+    <row r="92" spans="1:3">
+      <c r="A92" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="2">
         <v>24.41</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C92" s="2">
         <v>46.42</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" s="2">
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="2">
         <v>14.5</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C93" s="2">
         <v>-14.45</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" s="2">
+    <row r="94" spans="1:3">
+      <c r="A94" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="2">
         <v>-4.679574</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C94" s="2">
         <v>55.491977</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94" s="2">
-        <v>1.28333333333333</v>
-      </c>
-      <c r="C94" s="2">
-        <v>103.833333333333</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2375,21 +2390,21 @@
         <v>96</v>
       </c>
       <c r="B95" s="2">
+        <v>1.28333333333333</v>
+      </c>
+      <c r="C95" s="2">
+        <v>103.833333333333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="2">
         <v>-9.46666666666666</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C96" s="2">
         <v>159.816666666666</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" s="2">
-        <v>2.02</v>
-      </c>
-      <c r="C96" s="2">
-        <v>45.25</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2397,10 +2412,10 @@
         <v>98</v>
       </c>
       <c r="B97" s="2">
-        <v>40.25</v>
+        <v>2.02</v>
       </c>
       <c r="C97" s="2">
-        <v>-3.45</v>
+        <v>45.25</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2408,76 +2423,76 @@
         <v>99</v>
       </c>
       <c r="B98" s="2">
+        <v>40.25</v>
+      </c>
+      <c r="C98" s="2">
+        <v>-3.45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="2">
         <v>7.873054</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C99" s="2">
         <v>80.771797</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" s="2">
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="2">
         <v>37.55</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C100" s="2">
         <v>126.966666666666</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" s="2">
+    <row r="101" spans="1:3">
+      <c r="A101" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="2">
         <v>15</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C101" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101" s="2">
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="2">
         <v>5.83333333333333</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C102" s="2">
         <v>-55.1666666666666</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102" s="2">
+    <row r="103" spans="1:3">
+      <c r="A103" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" s="2">
         <v>-6.08</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C103" s="2">
         <v>35.45</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103" s="2">
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="2">
         <v>13.75</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C104" s="2">
         <v>100.483333333333</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104" s="2">
-        <v>6.09</v>
-      </c>
-      <c r="C104" s="2">
-        <v>1.2</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2485,32 +2500,32 @@
         <v>106</v>
       </c>
       <c r="B105" s="2">
+        <v>6.09</v>
+      </c>
+      <c r="C105" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="2">
         <v>-21.1</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C106" s="2">
         <v>-174</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" s="2">
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="2">
         <v>10.6666666666666</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C107" s="2">
         <v>-61.5075</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B107" s="2">
-        <v>-8.31</v>
-      </c>
-      <c r="C107" s="2">
-        <v>179.13</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2518,43 +2533,43 @@
         <v>109</v>
       </c>
       <c r="B108" s="2">
-        <v>0.2</v>
+        <v>-8.31</v>
       </c>
       <c r="C108" s="2">
-        <v>32.3</v>
+        <v>179.13</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="1">
-        <v>29.306</v>
-      </c>
-      <c r="C109" s="1">
-        <v>-81.694</v>
+      <c r="B109" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C109" s="2">
+        <v>32.3</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="1">
+        <v>29.306</v>
+      </c>
+      <c r="C110" s="1">
+        <v>-81.694</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="2">
         <v>-17.45</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C111" s="2">
         <v>168.18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B111" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="C111" s="2">
-        <v>-66.9166666666666</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2562,10 +2577,10 @@
         <v>113</v>
       </c>
       <c r="B112" s="2">
-        <v>21.0333333333333</v>
+        <v>10.5</v>
       </c>
       <c r="C112" s="2">
-        <v>105.85</v>
+        <v>-66.9166666666666</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2573,10 +2588,10 @@
         <v>114</v>
       </c>
       <c r="B113" s="2">
-        <v>18.05</v>
+        <v>21.0333333333333</v>
       </c>
       <c r="C113" s="2">
-        <v>-64.05</v>
+        <v>105.85</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2584,34 +2599,45 @@
         <v>115</v>
       </c>
       <c r="B114" s="2">
+        <v>18.05</v>
+      </c>
+      <c r="C114" s="2">
+        <v>-64.05</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="2">
         <v>-13.2833333333333</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C115" s="2">
         <v>-176.183333333333</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B115" s="2">
+    <row r="116" spans="1:3">
+      <c r="A116" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="2">
         <v>15.552727</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C116" s="2">
         <v>48.516388</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C115">
+  <autoFilter ref="A1:C116">
     <extLst/>
   </autoFilter>
   <sortState ref="A1:C112">
     <sortCondition ref="B1"/>
   </sortState>
-  <conditionalFormatting sqref="A1:A21 A101:A1048576 A86:A99 A71:A84 A43:A69 A37:A41 A23:A35">
+  <conditionalFormatting sqref="A1:A21 A23:A35 A37:A42 A102:A1048576 A87:A100 A44:A70 A72:A85">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100 A22 A70 A42 A85 A36">
+  <conditionalFormatting sqref="A36 A22 A101 A71 A86 A43">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/Loca.GPS.xlsx
+++ b/Data/Loca.GPS.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27517" windowHeight="4402"/>
+    <workbookView windowWidth="15975" windowHeight="11415"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Country</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Egypt</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
   </si>
   <si>
     <t>Fiji</t>
@@ -391,11 +394,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00000000_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00000000_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -861,19 +864,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1013,13 +1016,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1350,20 +1353,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="22.1238938053097" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7522123893805" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.8761061946903" style="1"/>
+    <col min="4" max="4" width="14.875" style="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1760,25 +1763,25 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="2">
+        <v>9</v>
+      </c>
+      <c r="C37" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2">
         <v>-18.1666666666666</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="2">
         <v>178.45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="2">
-        <v>48.5</v>
-      </c>
-      <c r="C38" s="2">
-        <v>2.2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1786,32 +1789,32 @@
         <v>40</v>
       </c>
       <c r="B39" s="2">
+        <v>48.5</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2">
         <v>5.05</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C40" s="2">
         <v>-52.18</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="2">
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2">
         <v>-17.5666666666666</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C41" s="2">
         <v>-149.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C41" s="2">
-        <v>9.26</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1819,26 +1822,26 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>53</v>
+        <v>0.25</v>
       </c>
       <c r="C42" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="B43" s="2">
+        <v>53</v>
+      </c>
+      <c r="C43" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B44" s="2">
-        <v>12.0666666666666</v>
-      </c>
-      <c r="C44" s="2">
-        <v>-61.7333333333333</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1846,10 +1849,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="2">
-        <v>16</v>
+        <v>12.0666666666666</v>
       </c>
       <c r="C45" s="2">
-        <v>-61.44</v>
+        <v>-61.7333333333333</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1857,10 +1860,10 @@
         <v>47</v>
       </c>
       <c r="B46" s="2">
-        <v>36.9</v>
+        <v>16</v>
       </c>
       <c r="C46" s="2">
-        <v>-89.8166666666666</v>
+        <v>-61.44</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1868,10 +1871,10 @@
         <v>48</v>
       </c>
       <c r="B47" s="2">
-        <v>14.4</v>
+        <v>36.9</v>
       </c>
       <c r="C47" s="2">
-        <v>-90.22</v>
+        <v>-89.8166666666666</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1879,10 +1882,10 @@
         <v>49</v>
       </c>
       <c r="B48" s="2">
-        <v>9.29</v>
+        <v>14.4</v>
       </c>
       <c r="C48" s="2">
-        <v>-13.49</v>
+        <v>-90.22</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1890,21 +1893,21 @@
         <v>50</v>
       </c>
       <c r="B49" s="2">
+        <v>9.29</v>
+      </c>
+      <c r="C49" s="2">
+        <v>-13.49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2">
         <v>6.5</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C50" s="2">
         <v>-58.12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="2">
-        <v>19</v>
-      </c>
-      <c r="C50" s="2">
-        <v>-75.4166666666666</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1912,10 +1915,10 @@
         <v>52</v>
       </c>
       <c r="B51" s="2">
-        <v>14.1</v>
+        <v>19</v>
       </c>
       <c r="C51" s="2">
-        <v>-87.2166666666666</v>
+        <v>-75.4166666666666</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1923,10 +1926,10 @@
         <v>53</v>
       </c>
       <c r="B52" s="2">
-        <v>28.6138888888888</v>
+        <v>14.1</v>
       </c>
       <c r="C52" s="2">
-        <v>77.2083333333333</v>
+        <v>-87.2166666666666</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1934,10 +1937,10 @@
         <v>54</v>
       </c>
       <c r="B53" s="2">
-        <v>-6.175</v>
+        <v>28.6138888888888</v>
       </c>
       <c r="C53" s="2">
-        <v>106.828333333333</v>
+        <v>77.2083333333333</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1945,98 +1948,98 @@
         <v>55</v>
       </c>
       <c r="B54" s="2">
+        <v>-6.175</v>
+      </c>
+      <c r="C54" s="2">
+        <v>106.828333333333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="2">
         <v>41.87</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C55" s="2">
         <v>12.57</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="2">
+    <row r="56" spans="1:3">
+      <c r="A56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="2">
         <v>18</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C56" s="2">
         <v>-76.5</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="2">
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="2">
         <v>35.6833333333333</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C57" s="2">
         <v>139.766666666666</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="2">
+    <row r="58" spans="1:3">
+      <c r="A58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="2">
         <v>-1.17</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C58" s="2">
         <v>36.48</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="2">
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="2">
         <v>17.9666666666666</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C59" s="2">
         <v>102.6</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="2">
+    <row r="60" spans="1:3">
+      <c r="A60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="2">
         <v>-18.55</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C60" s="2">
         <v>47.31</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="2">
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="2">
         <v>3.13333333333333</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C61" s="2">
         <v>101.683333333333</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="2">
+    <row r="62" spans="1:3">
+      <c r="A62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="2">
         <v>4</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C62" s="2">
         <v>73.28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="2">
-        <v>7.11666666666666</v>
-      </c>
-      <c r="C62" s="2">
-        <v>171.066666666666</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2044,10 +2047,10 @@
         <v>64</v>
       </c>
       <c r="B63" s="2">
-        <v>14.6666666666666</v>
+        <v>7.11666666666666</v>
       </c>
       <c r="C63" s="2">
-        <v>-61</v>
+        <v>171.066666666666</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2055,10 +2058,10 @@
         <v>65</v>
       </c>
       <c r="B64" s="2">
-        <v>19.4333333333333</v>
+        <v>14.6666666666666</v>
       </c>
       <c r="C64" s="2">
-        <v>-99.1333333333333</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2066,21 +2069,21 @@
         <v>66</v>
       </c>
       <c r="B65" s="2">
+        <v>19.4333333333333</v>
+      </c>
+      <c r="C65" s="2">
+        <v>-99.1333333333333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="2">
         <v>6</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C66" s="2">
         <v>158.09</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="2">
-        <v>16.742498</v>
-      </c>
-      <c r="C66" s="2">
-        <v>-62.187366</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2088,32 +2091,32 @@
         <v>68</v>
       </c>
       <c r="B67" s="2">
+        <v>16.742498</v>
+      </c>
+      <c r="C67" s="2">
+        <v>-62.187366</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="2">
         <v>47.02</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C68" s="2">
         <v>28.5</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="2">
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="2">
         <v>19.75</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C69" s="2">
         <v>96.1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="2">
-        <v>0</v>
-      </c>
-      <c r="C69" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2121,48 +2124,48 @@
         <v>71</v>
       </c>
       <c r="B70" s="2">
-        <v>-0.522778</v>
+        <v>0</v>
       </c>
       <c r="C70" s="2">
-        <v>166.931503</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="B71" s="2">
+        <v>-0.522778</v>
+      </c>
+      <c r="C71" s="2">
+        <v>166.931503</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
       <c r="A72" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="2">
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="2">
         <v>12.05</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C73" s="2">
         <v>-69</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="2">
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="2">
         <v>-22.2666666666666</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C74" s="2">
         <v>166.466666666666</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" s="2">
-        <v>-6.314993</v>
-      </c>
-      <c r="C74" s="2">
-        <v>143.95555</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2170,10 +2173,10 @@
         <v>76</v>
       </c>
       <c r="B75" s="2">
-        <v>12.06</v>
+        <v>-6.314993</v>
       </c>
       <c r="C75" s="2">
-        <v>-86.2</v>
+        <v>143.95555</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2181,10 +2184,10 @@
         <v>77</v>
       </c>
       <c r="B76" s="2">
-        <v>13.27</v>
+        <v>12.06</v>
       </c>
       <c r="C76" s="2">
-        <v>2.06</v>
+        <v>-86.2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2192,32 +2195,32 @@
         <v>78</v>
       </c>
       <c r="B77" s="2">
+        <v>13.27</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="2">
         <v>9.05</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C78" s="2">
         <v>7.32</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" s="2">
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="2">
         <v>33.6666666666666</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C79" s="2">
         <v>73.1666666666666</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="C79" s="2">
-        <v>134.28</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2225,43 +2228,43 @@
         <v>81</v>
       </c>
       <c r="B80" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="C80" s="2">
+        <v>134.28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="2">
         <v>9</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C81" s="2">
         <v>-79.25</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" s="2">
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="2">
         <v>-9.5</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C82" s="2">
         <v>147.116666666666</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" s="2">
+    <row r="83" spans="1:3">
+      <c r="A83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="2">
         <v>-25.1</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C83" s="2">
         <v>-57.3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="2">
-        <v>-12.0433333333333</v>
-      </c>
-      <c r="C83" s="2">
-        <v>-77.0283333333333</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2269,10 +2272,10 @@
         <v>85</v>
       </c>
       <c r="B84" s="2">
-        <v>14.5833333333333</v>
+        <v>-12.0433333333333</v>
       </c>
       <c r="C84" s="2">
-        <v>120.966666666666</v>
+        <v>-77.0283333333333</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2280,21 +2283,21 @@
         <v>86</v>
       </c>
       <c r="B85" s="2">
+        <v>14.5833333333333</v>
+      </c>
+      <c r="C85" s="2">
+        <v>120.966666666666</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="2">
         <v>18.45</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C86" s="2">
         <v>-66.1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86" s="2">
-        <v>25</v>
-      </c>
-      <c r="C86" s="2">
-        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2302,10 +2305,10 @@
         <v>88</v>
       </c>
       <c r="B87" s="2">
-        <v>-21.115141</v>
+        <v>25</v>
       </c>
       <c r="C87" s="2">
-        <v>55.536384</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2313,10 +2316,10 @@
         <v>89</v>
       </c>
       <c r="B88" s="2">
-        <v>17.17</v>
+        <v>-21.115141</v>
       </c>
       <c r="C88" s="2">
-        <v>-62.43</v>
+        <v>55.536384</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2324,10 +2327,10 @@
         <v>90</v>
       </c>
       <c r="B89" s="2">
-        <v>14.02</v>
+        <v>17.17</v>
       </c>
       <c r="C89" s="2">
-        <v>-60.58</v>
+        <v>-62.43</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2335,65 +2338,65 @@
         <v>91</v>
       </c>
       <c r="B90" s="2">
+        <v>14.02</v>
+      </c>
+      <c r="C90" s="2">
+        <v>-60.58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="2">
         <v>13.1</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C91" s="2">
         <v>-61.1</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" s="2">
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="2">
         <v>-13.8333333333333</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C92" s="2">
         <v>-171.75</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" s="2">
+    <row r="93" spans="1:3">
+      <c r="A93" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="2">
         <v>24.41</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C93" s="2">
         <v>46.42</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" s="2">
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="2">
         <v>14.5</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C94" s="2">
         <v>-14.45</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94" s="2">
+    <row r="95" spans="1:3">
+      <c r="A95" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="2">
         <v>-4.679574</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C95" s="2">
         <v>55.491977</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" s="2">
-        <v>1.28333333333333</v>
-      </c>
-      <c r="C95" s="2">
-        <v>103.833333333333</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2401,21 +2404,21 @@
         <v>97</v>
       </c>
       <c r="B96" s="2">
+        <v>1.28333333333333</v>
+      </c>
+      <c r="C96" s="2">
+        <v>103.833333333333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="2">
         <v>-9.46666666666666</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C97" s="2">
         <v>159.816666666666</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" s="2">
-        <v>2.02</v>
-      </c>
-      <c r="C97" s="2">
-        <v>45.25</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2423,10 +2426,10 @@
         <v>99</v>
       </c>
       <c r="B98" s="2">
-        <v>40.25</v>
+        <v>2.02</v>
       </c>
       <c r="C98" s="2">
-        <v>-3.45</v>
+        <v>45.25</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2434,76 +2437,76 @@
         <v>100</v>
       </c>
       <c r="B99" s="2">
+        <v>40.25</v>
+      </c>
+      <c r="C99" s="2">
+        <v>-3.45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="2">
         <v>7.873054</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C100" s="2">
         <v>80.771797</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" s="2">
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="2">
         <v>37.55</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C101" s="2">
         <v>126.966666666666</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101" s="2">
+    <row r="102" spans="1:3">
+      <c r="A102" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="2">
         <v>15</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C102" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102" s="2">
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" s="2">
         <v>5.83333333333333</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C103" s="2">
         <v>-55.1666666666666</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103" s="2">
+    <row r="104" spans="1:3">
+      <c r="A104" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="2">
         <v>-6.08</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C104" s="2">
         <v>35.45</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104" s="2">
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="2">
         <v>13.75</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C105" s="2">
         <v>100.483333333333</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105" s="2">
-        <v>6.09</v>
-      </c>
-      <c r="C105" s="2">
-        <v>1.2</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2511,32 +2514,32 @@
         <v>107</v>
       </c>
       <c r="B106" s="2">
+        <v>6.09</v>
+      </c>
+      <c r="C106" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="2">
         <v>-21.1</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C107" s="2">
         <v>-174</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B107" s="2">
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="2">
         <v>10.6666666666666</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C108" s="2">
         <v>-61.5075</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B108" s="2">
-        <v>-8.31</v>
-      </c>
-      <c r="C108" s="2">
-        <v>179.13</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2544,43 +2547,43 @@
         <v>110</v>
       </c>
       <c r="B109" s="2">
-        <v>0.2</v>
+        <v>-8.31</v>
       </c>
       <c r="C109" s="2">
-        <v>32.3</v>
+        <v>179.13</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="1">
-        <v>29.306</v>
-      </c>
-      <c r="C110" s="1">
-        <v>-81.694</v>
+      <c r="B110" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C110" s="2">
+        <v>32.3</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="1">
+        <v>29.306</v>
+      </c>
+      <c r="C111" s="1">
+        <v>-81.694</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="2">
         <v>-17.45</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C112" s="2">
         <v>168.18</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B112" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="C112" s="2">
-        <v>-66.9166666666666</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2588,10 +2591,10 @@
         <v>114</v>
       </c>
       <c r="B113" s="2">
-        <v>21.0333333333333</v>
+        <v>10.5</v>
       </c>
       <c r="C113" s="2">
-        <v>105.85</v>
+        <v>-66.9166666666666</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2599,10 +2602,10 @@
         <v>115</v>
       </c>
       <c r="B114" s="2">
-        <v>18.05</v>
+        <v>21.0333333333333</v>
       </c>
       <c r="C114" s="2">
-        <v>-64.05</v>
+        <v>105.85</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2610,34 +2613,45 @@
         <v>116</v>
       </c>
       <c r="B115" s="2">
+        <v>18.05</v>
+      </c>
+      <c r="C115" s="2">
+        <v>-64.05</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="2">
         <v>-13.2833333333333</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C116" s="2">
         <v>-176.183333333333</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B116" s="2">
+    <row r="117" spans="1:3">
+      <c r="A117" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="2">
         <v>15.552727</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C117" s="2">
         <v>48.516388</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C116">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C117" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A1:C112">
     <sortCondition ref="B1"/>
   </sortState>
-  <conditionalFormatting sqref="A1:A21 A23:A35 A37:A42 A102:A1048576 A87:A100 A44:A70 A72:A85">
+  <conditionalFormatting sqref="A1:A21 A23:A35 A38:A43 A73:A86 A45:A71 A88:A101 A103:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36 A22 A101 A71 A86 A43">
+  <conditionalFormatting sqref="A36:A37 A22 A102 A44 A87 A72">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/Loca.GPS.xlsx
+++ b/Data/Loca.GPS.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15975" windowHeight="11415"/>
+    <workbookView windowWidth="23040" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Country</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
   </si>
   <si>
     <t>Bhutan</t>
@@ -1353,20 +1356,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="1"/>
+    <col min="4" max="4" width="14.8796296296296" style="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1507,10 +1510,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>27.31</v>
+        <v>6.45</v>
       </c>
       <c r="C13" s="2">
-        <v>89.45</v>
+        <v>2.63333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1518,32 +1521,32 @@
         <v>15</v>
       </c>
       <c r="B14" s="2">
+        <v>27.31</v>
+      </c>
+      <c r="C14" s="2">
+        <v>89.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
         <v>-16.2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <v>-68.1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
         <v>-15.7833333333333</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>-47.8666666666666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2">
-        <v>18.27</v>
-      </c>
-      <c r="C16" s="2">
-        <v>-64.37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1551,10 +1554,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="2">
-        <v>4.52</v>
+        <v>18.27</v>
       </c>
       <c r="C17" s="2">
-        <v>115</v>
+        <v>-64.37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1562,21 +1565,21 @@
         <v>19</v>
       </c>
       <c r="B18" s="2">
+        <v>4.52</v>
+      </c>
+      <c r="C18" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2">
         <v>12.15</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2">
         <v>-1.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2">
-        <v>11.55</v>
-      </c>
-      <c r="C19" s="2">
-        <v>104.916666666666</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1584,72 +1587,72 @@
         <v>21</v>
       </c>
       <c r="B20" s="2">
+        <v>11.55</v>
+      </c>
+      <c r="C20" s="2">
+        <v>104.916666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
         <v>4.75</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="2">
         <v>11.216667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2">
-        <v>15.02</v>
-      </c>
-      <c r="C21" s="2">
-        <v>-23.34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="2">
+        <v>15.02</v>
+      </c>
+      <c r="C22" s="2">
+        <v>-23.34</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1">
-        <v>23.13</v>
-      </c>
-      <c r="C23" s="1">
-        <v>113.939</v>
-      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
+        <v>23.13</v>
+      </c>
+      <c r="C24" s="1">
+        <v>113.939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2">
         <v>4.58333333333333</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="2">
         <v>-74.0666666666666</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2">
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2">
         <v>-11.4</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="2">
         <v>43.16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2">
-        <v>-21.2</v>
-      </c>
-      <c r="C26" s="2">
-        <v>-159.766666666666</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1657,21 +1660,21 @@
         <v>28</v>
       </c>
       <c r="B27" s="2">
+        <v>-21.2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>-159.766666666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2">
         <v>9.93333333333333</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C28" s="2">
         <v>-84.0833333333333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="2">
-        <v>6.49</v>
-      </c>
-      <c r="C28" s="2">
-        <v>-5.17</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1679,10 +1682,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="2">
-        <v>23.08</v>
+        <v>6.49</v>
       </c>
       <c r="C29" s="2">
-        <v>-82.22</v>
+        <v>-5.17</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1690,21 +1693,21 @@
         <v>31</v>
       </c>
       <c r="B30" s="2">
+        <v>23.08</v>
+      </c>
+      <c r="C30" s="2">
+        <v>-82.22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2">
         <v>11.08</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="2">
         <v>42.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="2">
-        <v>51.52</v>
-      </c>
-      <c r="C31" s="2">
-        <v>-0.19</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1712,10 +1715,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="2">
-        <v>15.3</v>
+        <v>51.52</v>
       </c>
       <c r="C32" s="2">
-        <v>-61.3833333333333</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1723,10 +1726,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="2">
-        <v>-8.55</v>
+        <v>15.3</v>
       </c>
       <c r="C33" s="2">
-        <v>125.56</v>
+        <v>-61.3833333333333</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1734,10 +1737,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="2">
-        <v>-0.15</v>
+        <v>-8.55</v>
       </c>
       <c r="C34" s="2">
-        <v>-78.35</v>
+        <v>125.56</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1745,21 +1748,21 @@
         <v>36</v>
       </c>
       <c r="B35" s="2">
+        <v>-0.15</v>
+      </c>
+      <c r="C35" s="2">
+        <v>-78.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2">
         <v>13.6666666666666</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C36" s="2">
         <v>-89.1666666666666</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="2">
-        <v>30</v>
-      </c>
-      <c r="C36" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1767,32 +1770,32 @@
         <v>38</v>
       </c>
       <c r="B37" s="2">
+        <v>30</v>
+      </c>
+      <c r="C37" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2">
         <v>9</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="2">
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2">
         <v>-18.1666666666666</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C39" s="2">
         <v>178.45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="2">
-        <v>48.5</v>
-      </c>
-      <c r="C39" s="2">
-        <v>2.2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1800,32 +1803,32 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
+        <v>48.5</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2">
         <v>5.05</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C41" s="2">
         <v>-52.18</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="2">
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="2">
         <v>-17.5666666666666</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C42" s="2">
         <v>-149.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C42" s="2">
-        <v>9.26</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1833,26 +1836,26 @@
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>53</v>
+        <v>0.25</v>
       </c>
       <c r="C43" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="B44" s="2">
+        <v>53</v>
+      </c>
+      <c r="C44" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B45" s="2">
-        <v>12.0666666666666</v>
-      </c>
-      <c r="C45" s="2">
-        <v>-61.7333333333333</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1860,10 +1863,10 @@
         <v>47</v>
       </c>
       <c r="B46" s="2">
-        <v>16</v>
+        <v>12.0666666666666</v>
       </c>
       <c r="C46" s="2">
-        <v>-61.44</v>
+        <v>-61.7333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1871,10 +1874,10 @@
         <v>48</v>
       </c>
       <c r="B47" s="2">
-        <v>36.9</v>
+        <v>16</v>
       </c>
       <c r="C47" s="2">
-        <v>-89.8166666666666</v>
+        <v>-61.44</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1882,10 +1885,10 @@
         <v>49</v>
       </c>
       <c r="B48" s="2">
-        <v>14.4</v>
+        <v>36.9</v>
       </c>
       <c r="C48" s="2">
-        <v>-90.22</v>
+        <v>-89.8166666666666</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1893,10 +1896,10 @@
         <v>50</v>
       </c>
       <c r="B49" s="2">
-        <v>9.29</v>
+        <v>14.4</v>
       </c>
       <c r="C49" s="2">
-        <v>-13.49</v>
+        <v>-90.22</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1904,21 +1907,21 @@
         <v>51</v>
       </c>
       <c r="B50" s="2">
+        <v>9.29</v>
+      </c>
+      <c r="C50" s="2">
+        <v>-13.49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="2">
         <v>6.5</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C51" s="2">
         <v>-58.12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="2">
-        <v>19</v>
-      </c>
-      <c r="C51" s="2">
-        <v>-75.4166666666666</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1926,10 +1929,10 @@
         <v>53</v>
       </c>
       <c r="B52" s="2">
-        <v>14.1</v>
+        <v>19</v>
       </c>
       <c r="C52" s="2">
-        <v>-87.2166666666666</v>
+        <v>-75.4166666666666</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1937,10 +1940,10 @@
         <v>54</v>
       </c>
       <c r="B53" s="2">
-        <v>28.6138888888888</v>
+        <v>14.1</v>
       </c>
       <c r="C53" s="2">
-        <v>77.2083333333333</v>
+        <v>-87.2166666666666</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1948,10 +1951,10 @@
         <v>55</v>
       </c>
       <c r="B54" s="2">
-        <v>-6.175</v>
+        <v>28.6138888888888</v>
       </c>
       <c r="C54" s="2">
-        <v>106.828333333333</v>
+        <v>77.2083333333333</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1959,98 +1962,98 @@
         <v>56</v>
       </c>
       <c r="B55" s="2">
+        <v>-6.175</v>
+      </c>
+      <c r="C55" s="2">
+        <v>106.828333333333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="2">
         <v>41.87</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C56" s="2">
         <v>12.57</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="2">
+    <row r="57" spans="1:3">
+      <c r="A57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="2">
         <v>18</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C57" s="2">
         <v>-76.5</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="2">
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="2">
         <v>35.6833333333333</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C58" s="2">
         <v>139.766666666666</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="2">
+    <row r="59" spans="1:3">
+      <c r="A59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="2">
         <v>-1.17</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C59" s="2">
         <v>36.48</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="2">
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="2">
         <v>17.9666666666666</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C60" s="2">
         <v>102.6</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="2">
+    <row r="61" spans="1:3">
+      <c r="A61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="2">
         <v>-18.55</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C61" s="2">
         <v>47.31</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="2">
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="2">
         <v>3.13333333333333</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C62" s="2">
         <v>101.683333333333</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="2">
+    <row r="63" spans="1:3">
+      <c r="A63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="2">
         <v>4</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C63" s="2">
         <v>73.28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="2">
-        <v>7.11666666666666</v>
-      </c>
-      <c r="C63" s="2">
-        <v>171.066666666666</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2058,10 +2061,10 @@
         <v>65</v>
       </c>
       <c r="B64" s="2">
-        <v>14.6666666666666</v>
+        <v>7.11666666666666</v>
       </c>
       <c r="C64" s="2">
-        <v>-61</v>
+        <v>171.066666666666</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2069,10 +2072,10 @@
         <v>66</v>
       </c>
       <c r="B65" s="2">
-        <v>19.4333333333333</v>
+        <v>14.6666666666666</v>
       </c>
       <c r="C65" s="2">
-        <v>-99.1333333333333</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2080,21 +2083,21 @@
         <v>67</v>
       </c>
       <c r="B66" s="2">
+        <v>19.4333333333333</v>
+      </c>
+      <c r="C66" s="2">
+        <v>-99.1333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="2">
         <v>6</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C67" s="2">
         <v>158.09</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="2">
-        <v>16.742498</v>
-      </c>
-      <c r="C67" s="2">
-        <v>-62.187366</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2102,32 +2105,32 @@
         <v>69</v>
       </c>
       <c r="B68" s="2">
+        <v>16.742498</v>
+      </c>
+      <c r="C68" s="2">
+        <v>-62.187366</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="2">
         <v>47.02</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C69" s="2">
         <v>28.5</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="2">
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="2">
         <v>19.75</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C70" s="2">
         <v>96.1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="2">
-        <v>0</v>
-      </c>
-      <c r="C70" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2135,48 +2138,48 @@
         <v>72</v>
       </c>
       <c r="B71" s="2">
-        <v>-0.522778</v>
+        <v>0</v>
       </c>
       <c r="C71" s="2">
-        <v>166.931503</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="B72" s="2">
+        <v>-0.522778</v>
+      </c>
+      <c r="C72" s="2">
+        <v>166.931503</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
       <c r="A73" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="2">
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="2">
         <v>12.05</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C74" s="2">
         <v>-69</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" s="2">
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="2">
         <v>-22.2666666666666</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C75" s="2">
         <v>166.466666666666</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" s="2">
-        <v>-6.314993</v>
-      </c>
-      <c r="C75" s="2">
-        <v>143.95555</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2184,10 +2187,10 @@
         <v>77</v>
       </c>
       <c r="B76" s="2">
-        <v>12.06</v>
+        <v>-6.314993</v>
       </c>
       <c r="C76" s="2">
-        <v>-86.2</v>
+        <v>143.95555</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2195,10 +2198,10 @@
         <v>78</v>
       </c>
       <c r="B77" s="2">
-        <v>13.27</v>
+        <v>12.06</v>
       </c>
       <c r="C77" s="2">
-        <v>2.06</v>
+        <v>-86.2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2206,32 +2209,32 @@
         <v>79</v>
       </c>
       <c r="B78" s="2">
+        <v>13.27</v>
+      </c>
+      <c r="C78" s="2">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="2">
         <v>9.05</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C79" s="2">
         <v>7.32</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="2">
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="2">
         <v>33.6666666666666</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C80" s="2">
         <v>73.1666666666666</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="C80" s="2">
-        <v>134.28</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2239,43 +2242,43 @@
         <v>82</v>
       </c>
       <c r="B81" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="C81" s="2">
+        <v>134.28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="2">
         <v>9</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C82" s="2">
         <v>-79.25</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" s="2">
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="2">
         <v>-9.5</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C83" s="2">
         <v>147.116666666666</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="2">
+    <row r="84" spans="1:3">
+      <c r="A84" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="2">
         <v>-25.1</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C84" s="2">
         <v>-57.3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" s="2">
-        <v>-12.0433333333333</v>
-      </c>
-      <c r="C84" s="2">
-        <v>-77.0283333333333</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2283,10 +2286,10 @@
         <v>86</v>
       </c>
       <c r="B85" s="2">
-        <v>14.5833333333333</v>
+        <v>-12.0433333333333</v>
       </c>
       <c r="C85" s="2">
-        <v>120.966666666666</v>
+        <v>-77.0283333333333</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2294,21 +2297,21 @@
         <v>87</v>
       </c>
       <c r="B86" s="2">
+        <v>14.5833333333333</v>
+      </c>
+      <c r="C86" s="2">
+        <v>120.966666666666</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="2">
         <v>18.45</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C87" s="2">
         <v>-66.1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87" s="2">
-        <v>25</v>
-      </c>
-      <c r="C87" s="2">
-        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2316,10 +2319,10 @@
         <v>89</v>
       </c>
       <c r="B88" s="2">
-        <v>-21.115141</v>
+        <v>25</v>
       </c>
       <c r="C88" s="2">
-        <v>55.536384</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2327,10 +2330,10 @@
         <v>90</v>
       </c>
       <c r="B89" s="2">
-        <v>17.17</v>
+        <v>-21.115141</v>
       </c>
       <c r="C89" s="2">
-        <v>-62.43</v>
+        <v>55.536384</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2338,10 +2341,10 @@
         <v>91</v>
       </c>
       <c r="B90" s="2">
-        <v>14.02</v>
+        <v>17.17</v>
       </c>
       <c r="C90" s="2">
-        <v>-60.58</v>
+        <v>-62.43</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2349,65 +2352,65 @@
         <v>92</v>
       </c>
       <c r="B91" s="2">
+        <v>14.02</v>
+      </c>
+      <c r="C91" s="2">
+        <v>-60.58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="2">
         <v>13.1</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C92" s="2">
         <v>-61.1</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" s="2">
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="2">
         <v>-13.8333333333333</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C93" s="2">
         <v>-171.75</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" s="2">
+    <row r="94" spans="1:3">
+      <c r="A94" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="2">
         <v>24.41</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C94" s="2">
         <v>46.42</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94" s="2">
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="2">
         <v>14.5</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C95" s="2">
         <v>-14.45</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" s="2">
+    <row r="96" spans="1:3">
+      <c r="A96" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="2">
         <v>-4.679574</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C96" s="2">
         <v>55.491977</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" s="2">
-        <v>1.28333333333333</v>
-      </c>
-      <c r="C96" s="2">
-        <v>103.833333333333</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2415,21 +2418,21 @@
         <v>98</v>
       </c>
       <c r="B97" s="2">
+        <v>1.28333333333333</v>
+      </c>
+      <c r="C97" s="2">
+        <v>103.833333333333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="2">
         <v>-9.46666666666666</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C98" s="2">
         <v>159.816666666666</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" s="2">
-        <v>2.02</v>
-      </c>
-      <c r="C98" s="2">
-        <v>45.25</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2437,10 +2440,10 @@
         <v>100</v>
       </c>
       <c r="B99" s="2">
-        <v>40.25</v>
+        <v>2.02</v>
       </c>
       <c r="C99" s="2">
-        <v>-3.45</v>
+        <v>45.25</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2448,76 +2451,76 @@
         <v>101</v>
       </c>
       <c r="B100" s="2">
+        <v>40.25</v>
+      </c>
+      <c r="C100" s="2">
+        <v>-3.45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="2">
         <v>7.873054</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C101" s="2">
         <v>80.771797</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101" s="2">
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="2">
         <v>37.55</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C102" s="2">
         <v>126.966666666666</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102" s="2">
+    <row r="103" spans="1:3">
+      <c r="A103" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" s="2">
         <v>15</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C103" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103" s="2">
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="2">
         <v>5.83333333333333</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C104" s="2">
         <v>-55.1666666666666</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104" s="2">
+    <row r="105" spans="1:3">
+      <c r="A105" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="2">
         <v>-6.08</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C105" s="2">
         <v>35.45</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105" s="2">
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="2">
         <v>13.75</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C106" s="2">
         <v>100.483333333333</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" s="2">
-        <v>6.09</v>
-      </c>
-      <c r="C106" s="2">
-        <v>1.2</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2525,32 +2528,32 @@
         <v>108</v>
       </c>
       <c r="B107" s="2">
+        <v>6.09</v>
+      </c>
+      <c r="C107" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="2">
         <v>-21.1</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C108" s="2">
         <v>-174</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B108" s="2">
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="2">
         <v>10.6666666666666</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C109" s="2">
         <v>-61.5075</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B109" s="2">
-        <v>-8.31</v>
-      </c>
-      <c r="C109" s="2">
-        <v>179.13</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2558,43 +2561,43 @@
         <v>111</v>
       </c>
       <c r="B110" s="2">
-        <v>0.2</v>
+        <v>-8.31</v>
       </c>
       <c r="C110" s="2">
-        <v>32.3</v>
+        <v>179.13</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B111" s="1">
-        <v>29.306</v>
-      </c>
-      <c r="C111" s="1">
-        <v>-81.694</v>
+      <c r="B111" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C111" s="2">
+        <v>32.3</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="1">
+        <v>29.306</v>
+      </c>
+      <c r="C112" s="1">
+        <v>-81.694</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="2">
         <v>-17.45</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C113" s="2">
         <v>168.18</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B113" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="C113" s="2">
-        <v>-66.9166666666666</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2602,10 +2605,10 @@
         <v>115</v>
       </c>
       <c r="B114" s="2">
-        <v>21.0333333333333</v>
+        <v>10.5</v>
       </c>
       <c r="C114" s="2">
-        <v>105.85</v>
+        <v>-66.9166666666666</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2613,10 +2616,10 @@
         <v>116</v>
       </c>
       <c r="B115" s="2">
-        <v>18.05</v>
+        <v>21.0333333333333</v>
       </c>
       <c r="C115" s="2">
-        <v>-64.05</v>
+        <v>105.85</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2624,34 +2627,45 @@
         <v>117</v>
       </c>
       <c r="B116" s="2">
+        <v>18.05</v>
+      </c>
+      <c r="C116" s="2">
+        <v>-64.05</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="2">
         <v>-13.2833333333333</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C117" s="2">
         <v>-176.183333333333</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B117" s="2">
+    <row r="118" spans="1:3">
+      <c r="A118" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="2">
         <v>15.552727</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C118" s="2">
         <v>48.516388</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C117" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C118" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A1:C112">
     <sortCondition ref="B1"/>
   </sortState>
-  <conditionalFormatting sqref="A1:A21 A23:A35 A38:A43 A73:A86 A45:A71 A88:A101 A103:A1048576">
+  <conditionalFormatting sqref="A1:A22 A104:A1048576 A89:A102 A46:A72 A74:A87 A39:A44 A24:A36">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 A22 A102 A44 A87 A72">
+  <conditionalFormatting sqref="A37:A38 A73 A88 A45 A103 A23">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/Loca.GPS.xlsx
+++ b/Data/Loca.GPS.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10500"/>
+    <workbookView windowWidth="10631" windowHeight="10235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Country</t>
   </si>
@@ -131,24 +131,24 @@
     <t>Djibouti</t>
   </si>
   <si>
+    <t>Dominica</t>
+  </si>
+  <si>
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>Dominica</t>
-  </si>
-  <si>
     <t>East Timor</t>
   </si>
   <si>
     <t>Ecuador</t>
   </si>
   <si>
+    <t>Egypt</t>
+  </si>
+  <si>
     <t>El Salvador</t>
   </si>
   <si>
-    <t>Egypt</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -203,6 +203,9 @@
     <t>Indonesia</t>
   </si>
   <si>
+    <t>Iran</t>
+  </si>
+  <si>
     <t>Italy</t>
   </si>
   <si>
@@ -215,6 +218,9 @@
     <t>Kenya</t>
   </si>
   <si>
+    <t>Lao PDR</t>
+  </si>
+  <si>
     <t>Laos</t>
   </si>
   <si>
@@ -296,6 +302,9 @@
     <t>Philippines</t>
   </si>
   <si>
+    <t>Portugal</t>
+  </si>
+  <si>
     <t>Puerto Rico</t>
   </si>
   <si>
@@ -326,22 +335,28 @@
     <t>Seychelles</t>
   </si>
   <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
     <t>Singapore</t>
   </si>
   <si>
+    <t>Solomon Is.</t>
+  </si>
+  <si>
     <t>Solomon Islands</t>
   </si>
   <si>
     <t>Somalia</t>
   </si>
   <si>
+    <t>South Korea</t>
+  </si>
+  <si>
     <t>Spain</t>
   </si>
   <si>
     <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>South Korea</t>
   </si>
   <si>
     <t>Sudan</t>
@@ -1356,12 +1371,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1619,8 +1634,12 @@
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="4">
+        <v>-33.4333</v>
+      </c>
+      <c r="C23" s="4">
+        <v>-70.0667</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
@@ -1715,10 +1734,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="2">
-        <v>51.52</v>
+        <v>15.3</v>
       </c>
       <c r="C32" s="2">
-        <v>-0.19</v>
+        <v>-61.3833333333333</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1726,10 +1745,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="2">
-        <v>15.3</v>
+        <v>51.52</v>
       </c>
       <c r="C33" s="2">
-        <v>-61.3833333333333</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1755,25 +1774,25 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="2">
+        <v>30</v>
+      </c>
+      <c r="C36" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2">
         <v>13.6666666666666</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C37" s="2">
         <v>-89.1666666666666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="2">
-        <v>30</v>
-      </c>
-      <c r="C37" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1853,9 +1872,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="B45" s="2">
+        <v>8</v>
+      </c>
+      <c r="C45" s="2">
+        <v>-2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1973,65 +1998,65 @@
         <v>57</v>
       </c>
       <c r="B56" s="2">
+        <v>35.75</v>
+      </c>
+      <c r="C56" s="2">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="2">
         <v>41.87</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C57" s="2">
         <v>12.57</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="2">
+    <row r="58" spans="1:3">
+      <c r="A58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="2">
         <v>18</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C58" s="2">
         <v>-76.5</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="2">
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="2">
         <v>35.6833333333333</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C59" s="2">
         <v>139.766666666666</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="2">
+    <row r="60" spans="1:3">
+      <c r="A60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="2">
         <v>-1.17</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C60" s="2">
         <v>36.48</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="2">
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="2">
         <v>17.9666666666666</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C61" s="2">
         <v>102.6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="2">
-        <v>-18.55</v>
-      </c>
-      <c r="C61" s="2">
-        <v>47.31</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2039,10 +2064,10 @@
         <v>63</v>
       </c>
       <c r="B62" s="2">
-        <v>3.13333333333333</v>
+        <v>17.9666666666666</v>
       </c>
       <c r="C62" s="2">
-        <v>101.683333333333</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2050,10 +2075,10 @@
         <v>64</v>
       </c>
       <c r="B63" s="2">
-        <v>4</v>
+        <v>-18.55</v>
       </c>
       <c r="C63" s="2">
-        <v>73.28</v>
+        <v>47.31</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2061,21 +2086,21 @@
         <v>65</v>
       </c>
       <c r="B64" s="2">
-        <v>7.11666666666666</v>
+        <v>3.13333333333333</v>
       </c>
       <c r="C64" s="2">
-        <v>171.066666666666</v>
+        <v>101.683333333333</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B65" s="2">
-        <v>14.6666666666666</v>
+        <v>4</v>
       </c>
       <c r="C65" s="2">
-        <v>-61</v>
+        <v>73.28</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2083,10 +2108,10 @@
         <v>67</v>
       </c>
       <c r="B66" s="2">
-        <v>19.4333333333333</v>
+        <v>7.11666666666666</v>
       </c>
       <c r="C66" s="2">
-        <v>-99.1333333333333</v>
+        <v>171.066666666666</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2094,43 +2119,43 @@
         <v>68</v>
       </c>
       <c r="B67" s="2">
+        <v>14.6666666666666</v>
+      </c>
+      <c r="C67" s="2">
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="2">
+        <v>19.4333333333333</v>
+      </c>
+      <c r="C68" s="2">
+        <v>-99.1333333333333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="2">
         <v>6</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C69" s="2">
         <v>158.09</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="2">
+    <row r="70" spans="1:3">
+      <c r="A70" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="2">
         <v>16.742498</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C70" s="2">
         <v>-62.187366</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="2">
-        <v>47.02</v>
-      </c>
-      <c r="C69" s="2">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="2">
-        <v>19.75</v>
-      </c>
-      <c r="C70" s="2">
-        <v>96.1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2138,26 +2163,32 @@
         <v>72</v>
       </c>
       <c r="B71" s="2">
-        <v>0</v>
+        <v>47.02</v>
       </c>
       <c r="C71" s="2">
-        <v>0</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="2">
-        <v>-0.522778</v>
+        <v>19.75</v>
       </c>
       <c r="C72" s="2">
-        <v>166.931503</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>96.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="3" t="s">
         <v>74</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2165,21 +2196,21 @@
         <v>75</v>
       </c>
       <c r="B74" s="2">
-        <v>12.05</v>
+        <v>-0.522778</v>
       </c>
       <c r="C74" s="2">
-        <v>-69</v>
+        <v>166.931503</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B75" s="2">
-        <v>-22.2666666666666</v>
+        <v>27.7</v>
       </c>
       <c r="C75" s="2">
-        <v>166.466666666666</v>
+        <v>85.3333</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2187,21 +2218,21 @@
         <v>77</v>
       </c>
       <c r="B76" s="2">
-        <v>-6.314993</v>
+        <v>12.05</v>
       </c>
       <c r="C76" s="2">
-        <v>143.95555</v>
+        <v>-69</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B77" s="2">
-        <v>12.06</v>
+        <v>-22.2666666666666</v>
       </c>
       <c r="C77" s="2">
-        <v>-86.2</v>
+        <v>166.466666666666</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2209,10 +2240,10 @@
         <v>79</v>
       </c>
       <c r="B78" s="2">
-        <v>13.27</v>
+        <v>-6.314993</v>
       </c>
       <c r="C78" s="2">
-        <v>2.06</v>
+        <v>143.95555</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2220,21 +2251,21 @@
         <v>80</v>
       </c>
       <c r="B79" s="2">
-        <v>9.05</v>
+        <v>12.06</v>
       </c>
       <c r="C79" s="2">
-        <v>7.32</v>
+        <v>-86.2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B80" s="2">
-        <v>33.6666666666666</v>
+        <v>13.27</v>
       </c>
       <c r="C80" s="2">
-        <v>73.1666666666666</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2242,32 +2273,32 @@
         <v>82</v>
       </c>
       <c r="B81" s="2">
+        <v>9.05</v>
+      </c>
+      <c r="C81" s="2">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="2">
+        <v>33.6666666666666</v>
+      </c>
+      <c r="C82" s="2">
+        <v>73.1666666666666</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="2">
         <v>7.2</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C83" s="2">
         <v>134.28</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" s="2">
-        <v>9</v>
-      </c>
-      <c r="C82" s="2">
-        <v>-79.25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="2">
-        <v>-9.5</v>
-      </c>
-      <c r="C83" s="2">
-        <v>147.116666666666</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2275,10 +2306,10 @@
         <v>85</v>
       </c>
       <c r="B84" s="2">
-        <v>-25.1</v>
+        <v>9</v>
       </c>
       <c r="C84" s="2">
-        <v>-57.3</v>
+        <v>-79.25</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2286,21 +2317,21 @@
         <v>86</v>
       </c>
       <c r="B85" s="2">
-        <v>-12.0433333333333</v>
+        <v>-9.5</v>
       </c>
       <c r="C85" s="2">
-        <v>-77.0283333333333</v>
+        <v>147.116666666666</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B86" s="2">
-        <v>14.5833333333333</v>
+        <v>-25.1</v>
       </c>
       <c r="C86" s="2">
-        <v>120.966666666666</v>
+        <v>-57.3</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2308,43 +2339,43 @@
         <v>88</v>
       </c>
       <c r="B87" s="2">
+        <v>-12.0433333333333</v>
+      </c>
+      <c r="C87" s="2">
+        <v>-77.0283333333333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="2">
+        <v>14.5833333333333</v>
+      </c>
+      <c r="C88" s="2">
+        <v>120.966666666666</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="2">
+        <v>38.7167</v>
+      </c>
+      <c r="C89" s="2">
+        <v>-9.1333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="2">
         <v>18.45</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C90" s="2">
         <v>-66.1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B88" s="2">
-        <v>25</v>
-      </c>
-      <c r="C88" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" s="2">
-        <v>-21.115141</v>
-      </c>
-      <c r="C89" s="2">
-        <v>55.536384</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" s="2">
-        <v>17.17</v>
-      </c>
-      <c r="C90" s="2">
-        <v>-62.43</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2352,10 +2383,10 @@
         <v>92</v>
       </c>
       <c r="B91" s="2">
-        <v>14.02</v>
+        <v>25</v>
       </c>
       <c r="C91" s="2">
-        <v>-60.58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2363,21 +2394,21 @@
         <v>93</v>
       </c>
       <c r="B92" s="2">
-        <v>13.1</v>
+        <v>-21.115141</v>
       </c>
       <c r="C92" s="2">
-        <v>-61.1</v>
+        <v>55.536384</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B93" s="2">
-        <v>-13.8333333333333</v>
+        <v>17.17</v>
       </c>
       <c r="C93" s="2">
-        <v>-171.75</v>
+        <v>-62.43</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2385,43 +2416,43 @@
         <v>95</v>
       </c>
       <c r="B94" s="2">
+        <v>14.02</v>
+      </c>
+      <c r="C94" s="2">
+        <v>-60.58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="C95" s="2">
+        <v>-61.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="2">
+        <v>-13.8333333333333</v>
+      </c>
+      <c r="C96" s="2">
+        <v>-171.75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="2">
         <v>24.41</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C97" s="2">
         <v>46.42</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" s="2">
-        <v>14.5</v>
-      </c>
-      <c r="C95" s="2">
-        <v>-14.45</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" s="2">
-        <v>-4.679574</v>
-      </c>
-      <c r="C96" s="2">
-        <v>55.491977</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" s="2">
-        <v>1.28333333333333</v>
-      </c>
-      <c r="C97" s="2">
-        <v>103.833333333333</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2429,10 +2460,10 @@
         <v>99</v>
       </c>
       <c r="B98" s="2">
-        <v>-9.46666666666666</v>
+        <v>14.5</v>
       </c>
       <c r="C98" s="2">
-        <v>159.816666666666</v>
+        <v>-14.45</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2440,32 +2471,32 @@
         <v>100</v>
       </c>
       <c r="B99" s="2">
-        <v>2.02</v>
+        <v>-4.679574</v>
       </c>
       <c r="C99" s="2">
-        <v>45.25</v>
+        <v>55.491977</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B100" s="2">
-        <v>40.25</v>
+        <v>8.5</v>
       </c>
       <c r="C100" s="2">
-        <v>-3.45</v>
+        <v>-11.5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B101" s="2">
-        <v>7.873054</v>
+        <v>1.28333333333333</v>
       </c>
       <c r="C101" s="2">
-        <v>80.771797</v>
+        <v>103.833333333333</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2473,54 +2504,54 @@
         <v>103</v>
       </c>
       <c r="B102" s="2">
+        <v>-9.46666666666666</v>
+      </c>
+      <c r="C102" s="2">
+        <v>159.816666666666</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" s="2">
+        <v>-9.46666666666666</v>
+      </c>
+      <c r="C103" s="2">
+        <v>159.816666666666</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="C104" s="2">
+        <v>45.25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="2">
         <v>37.55</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C105" s="2">
         <v>126.966666666666</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103" s="2">
-        <v>15</v>
-      </c>
-      <c r="C103" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104" s="2">
-        <v>5.83333333333333</v>
-      </c>
-      <c r="C104" s="2">
-        <v>-55.1666666666666</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105" s="2">
-        <v>-6.08</v>
-      </c>
-      <c r="C105" s="2">
-        <v>35.45</v>
-      </c>
-    </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B106" s="2">
-        <v>13.75</v>
+        <v>40.25</v>
       </c>
       <c r="C106" s="2">
-        <v>100.483333333333</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2528,10 +2559,10 @@
         <v>108</v>
       </c>
       <c r="B107" s="2">
-        <v>6.09</v>
+        <v>7.873054</v>
       </c>
       <c r="C107" s="2">
-        <v>1.2</v>
+        <v>80.771797</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2539,10 +2570,10 @@
         <v>109</v>
       </c>
       <c r="B108" s="2">
-        <v>-21.1</v>
+        <v>15</v>
       </c>
       <c r="C108" s="2">
-        <v>-174</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2550,10 +2581,10 @@
         <v>110</v>
       </c>
       <c r="B109" s="2">
-        <v>10.6666666666666</v>
+        <v>5.83333333333333</v>
       </c>
       <c r="C109" s="2">
-        <v>-61.5075</v>
+        <v>-55.1666666666666</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2561,32 +2592,32 @@
         <v>111</v>
       </c>
       <c r="B110" s="2">
-        <v>-8.31</v>
+        <v>-6.08</v>
       </c>
       <c r="C110" s="2">
-        <v>179.13</v>
+        <v>35.45</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B111" s="2">
-        <v>0.2</v>
+        <v>13.75</v>
       </c>
       <c r="C111" s="2">
-        <v>32.3</v>
+        <v>100.483333333333</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="1">
-        <v>29.306</v>
-      </c>
-      <c r="C112" s="1">
-        <v>-81.694</v>
+      <c r="B112" s="2">
+        <v>6.09</v>
+      </c>
+      <c r="C112" s="2">
+        <v>1.2</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2594,10 +2625,10 @@
         <v>114</v>
       </c>
       <c r="B113" s="2">
-        <v>-17.45</v>
+        <v>-21.1</v>
       </c>
       <c r="C113" s="2">
-        <v>168.18</v>
+        <v>-174</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2605,43 +2636,43 @@
         <v>115</v>
       </c>
       <c r="B114" s="2">
-        <v>10.5</v>
+        <v>10.6666666666666</v>
       </c>
       <c r="C114" s="2">
-        <v>-66.9166666666666</v>
+        <v>-61.5075</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B115" s="2">
-        <v>21.0333333333333</v>
+        <v>-8.31</v>
       </c>
       <c r="C115" s="2">
-        <v>105.85</v>
+        <v>179.13</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B116" s="2">
-        <v>18.05</v>
+        <v>0.2</v>
       </c>
       <c r="C116" s="2">
-        <v>-64.05</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="2">
-        <v>-13.2833333333333</v>
-      </c>
-      <c r="C117" s="2">
-        <v>-176.183333333333</v>
+      <c r="B117" s="1">
+        <v>29.306</v>
+      </c>
+      <c r="C117" s="1">
+        <v>-81.694</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2649,24 +2680,76 @@
         <v>119</v>
       </c>
       <c r="B118" s="2">
+        <v>-17.45</v>
+      </c>
+      <c r="C118" s="2">
+        <v>168.18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="C119" s="2">
+        <v>-66.9166666666666</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="2">
+        <v>21.0333333333333</v>
+      </c>
+      <c r="C120" s="2">
+        <v>105.85</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" s="2">
+        <v>18.05</v>
+      </c>
+      <c r="C121" s="2">
+        <v>-64.05</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" s="2">
+        <v>-13.2833333333333</v>
+      </c>
+      <c r="C122" s="2">
+        <v>-176.183333333333</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" s="2">
         <v>15.552727</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C123" s="2">
         <v>48.516388</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C118" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C117" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <sortState ref="A1:C112">
-    <sortCondition ref="B1"/>
+  <sortState ref="A2:C124">
+    <sortCondition ref="A2"/>
   </sortState>
-  <conditionalFormatting sqref="A1:A22 A104:A1048576 A89:A102 A46:A72 A74:A87 A39:A44 A24:A36">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 A73 A88 A45 A103 A23">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A$1:A$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Data/Loca.GPS.xlsx
+++ b/Data/Loca.GPS.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10631" windowHeight="10235"/>
+    <workbookView windowWidth="10680" windowHeight="10271"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>Country</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
   </si>
   <si>
     <t>Mexico</t>
@@ -418,7 +421,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00000000_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +433,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -897,137 +906,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1042,6 +1051,9 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1371,15 +1383,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
@@ -2103,7 +2115,7 @@
         <v>73.28</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -2113,6 +2125,7 @@
       <c r="C66" s="2">
         <v>171.066666666666</v>
       </c>
+      <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
@@ -2130,10 +2143,10 @@
         <v>69</v>
       </c>
       <c r="B68" s="2">
-        <v>19.4333333333333</v>
+        <v>18.06</v>
       </c>
       <c r="C68" s="2">
-        <v>-99.1333333333333</v>
+        <v>-15.97</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2141,21 +2154,21 @@
         <v>70</v>
       </c>
       <c r="B69" s="2">
+        <v>19.4333333333333</v>
+      </c>
+      <c r="C69" s="2">
+        <v>-99.1333333333333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="2">
         <v>6</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C70" s="2">
         <v>158.09</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="2">
-        <v>16.742498</v>
-      </c>
-      <c r="C70" s="2">
-        <v>-62.187366</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2163,32 +2176,32 @@
         <v>72</v>
       </c>
       <c r="B71" s="2">
+        <v>16.742498</v>
+      </c>
+      <c r="C71" s="2">
+        <v>-62.187366</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="2">
         <v>47.02</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C72" s="2">
         <v>28.5</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="2">
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="2">
         <v>19.75</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C73" s="2">
         <v>96.1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="2">
-        <v>0</v>
-      </c>
-      <c r="C73" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2196,10 +2209,10 @@
         <v>75</v>
       </c>
       <c r="B74" s="2">
-        <v>-0.522778</v>
+        <v>0</v>
       </c>
       <c r="C74" s="2">
-        <v>166.931503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2207,10 +2220,10 @@
         <v>76</v>
       </c>
       <c r="B75" s="2">
-        <v>27.7</v>
+        <v>-0.522778</v>
       </c>
       <c r="C75" s="2">
-        <v>85.3333</v>
+        <v>166.931503</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2218,32 +2231,32 @@
         <v>77</v>
       </c>
       <c r="B76" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="C76" s="2">
+        <v>85.3333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="2">
         <v>12.05</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C77" s="2">
         <v>-69</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" s="2">
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="2">
         <v>-22.2666666666666</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C78" s="2">
         <v>166.466666666666</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" s="2">
-        <v>-6.314993</v>
-      </c>
-      <c r="C78" s="2">
-        <v>143.95555</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2251,10 +2264,10 @@
         <v>80</v>
       </c>
       <c r="B79" s="2">
-        <v>12.06</v>
+        <v>-6.314993</v>
       </c>
       <c r="C79" s="2">
-        <v>-86.2</v>
+        <v>143.95555</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2262,10 +2275,10 @@
         <v>81</v>
       </c>
       <c r="B80" s="2">
-        <v>13.27</v>
+        <v>12.06</v>
       </c>
       <c r="C80" s="2">
-        <v>2.06</v>
+        <v>-86.2</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2273,32 +2286,32 @@
         <v>82</v>
       </c>
       <c r="B81" s="2">
+        <v>13.27</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="2">
         <v>9.05</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C82" s="2">
         <v>7.32</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" s="2">
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="2">
         <v>33.6666666666666</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C83" s="2">
         <v>73.1666666666666</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="C83" s="2">
-        <v>134.28</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2306,43 +2319,43 @@
         <v>85</v>
       </c>
       <c r="B84" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="C84" s="2">
+        <v>134.28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="2">
         <v>9</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C85" s="2">
         <v>-79.25</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" s="2">
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="2">
         <v>-9.5</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C86" s="2">
         <v>147.116666666666</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86" s="2">
+    <row r="87" spans="1:3">
+      <c r="A87" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="2">
         <v>-25.1</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C87" s="2">
         <v>-57.3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87" s="2">
-        <v>-12.0433333333333</v>
-      </c>
-      <c r="C87" s="2">
-        <v>-77.0283333333333</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2350,10 +2363,10 @@
         <v>89</v>
       </c>
       <c r="B88" s="2">
-        <v>14.5833333333333</v>
+        <v>-12.0433333333333</v>
       </c>
       <c r="C88" s="2">
-        <v>120.966666666666</v>
+        <v>-77.0283333333333</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2361,10 +2374,10 @@
         <v>90</v>
       </c>
       <c r="B89" s="2">
-        <v>38.7167</v>
+        <v>14.5833333333333</v>
       </c>
       <c r="C89" s="2">
-        <v>-9.1333</v>
+        <v>120.966666666666</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2372,21 +2385,21 @@
         <v>91</v>
       </c>
       <c r="B90" s="2">
+        <v>38.7167</v>
+      </c>
+      <c r="C90" s="2">
+        <v>-9.1333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="2">
         <v>18.45</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C91" s="2">
         <v>-66.1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" s="2">
-        <v>25</v>
-      </c>
-      <c r="C91" s="2">
-        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2394,10 +2407,10 @@
         <v>93</v>
       </c>
       <c r="B92" s="2">
-        <v>-21.115141</v>
+        <v>25</v>
       </c>
       <c r="C92" s="2">
-        <v>55.536384</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2405,10 +2418,10 @@
         <v>94</v>
       </c>
       <c r="B93" s="2">
-        <v>17.17</v>
+        <v>-21.115141</v>
       </c>
       <c r="C93" s="2">
-        <v>-62.43</v>
+        <v>55.536384</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2416,10 +2429,10 @@
         <v>95</v>
       </c>
       <c r="B94" s="2">
-        <v>14.02</v>
+        <v>17.17</v>
       </c>
       <c r="C94" s="2">
-        <v>-60.58</v>
+        <v>-62.43</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2427,65 +2440,65 @@
         <v>96</v>
       </c>
       <c r="B95" s="2">
+        <v>14.02</v>
+      </c>
+      <c r="C95" s="2">
+        <v>-60.58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="2">
         <v>13.1</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C96" s="2">
         <v>-61.1</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" s="2">
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="2">
         <v>-13.8333333333333</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C97" s="2">
         <v>-171.75</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" s="2">
+    <row r="98" spans="1:3">
+      <c r="A98" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="2">
         <v>24.41</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C98" s="2">
         <v>46.42</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" s="2">
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="2">
         <v>14.5</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C99" s="2">
         <v>-14.45</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" s="2">
+    <row r="100" spans="1:3">
+      <c r="A100" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="2">
         <v>-4.679574</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C100" s="2">
         <v>55.491977</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="C100" s="2">
-        <v>-11.5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2493,10 +2506,10 @@
         <v>102</v>
       </c>
       <c r="B101" s="2">
-        <v>1.28333333333333</v>
+        <v>8.5</v>
       </c>
       <c r="C101" s="2">
-        <v>103.833333333333</v>
+        <v>-11.5</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2504,10 +2517,10 @@
         <v>103</v>
       </c>
       <c r="B102" s="2">
-        <v>-9.46666666666666</v>
+        <v>1.28333333333333</v>
       </c>
       <c r="C102" s="2">
-        <v>159.816666666666</v>
+        <v>103.833333333333</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2522,36 +2535,36 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B104" s="2">
+        <v>-9.46666666666666</v>
+      </c>
+      <c r="C104" s="2">
+        <v>159.816666666666</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="2">
         <v>2.02</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C105" s="2">
         <v>45.25</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105" s="2">
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="2">
         <v>37.55</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C106" s="2">
         <v>126.966666666666</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" s="2">
-        <v>40.25</v>
-      </c>
-      <c r="C106" s="2">
-        <v>-3.45</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2559,10 +2572,10 @@
         <v>108</v>
       </c>
       <c r="B107" s="2">
-        <v>7.873054</v>
+        <v>40.25</v>
       </c>
       <c r="C107" s="2">
-        <v>80.771797</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2570,54 +2583,54 @@
         <v>109</v>
       </c>
       <c r="B108" s="2">
+        <v>7.873054</v>
+      </c>
+      <c r="C108" s="2">
+        <v>80.771797</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="2">
         <v>15</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C109" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B109" s="2">
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="2">
         <v>5.83333333333333</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C110" s="2">
         <v>-55.1666666666666</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B110" s="2">
+    <row r="111" spans="1:3">
+      <c r="A111" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="2">
         <v>-6.08</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C111" s="2">
         <v>35.45</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B111" s="2">
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="2">
         <v>13.75</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C112" s="2">
         <v>100.483333333333</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B112" s="2">
-        <v>6.09</v>
-      </c>
-      <c r="C112" s="2">
-        <v>1.2</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2625,32 +2638,32 @@
         <v>114</v>
       </c>
       <c r="B113" s="2">
+        <v>6.09</v>
+      </c>
+      <c r="C113" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="2">
         <v>-21.1</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C114" s="2">
         <v>-174</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B114" s="2">
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="2">
         <v>10.6666666666666</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C115" s="2">
         <v>-61.5075</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B115" s="2">
-        <v>-8.31</v>
-      </c>
-      <c r="C115" s="2">
-        <v>179.13</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2658,43 +2671,43 @@
         <v>117</v>
       </c>
       <c r="B116" s="2">
-        <v>0.2</v>
+        <v>-8.31</v>
       </c>
       <c r="C116" s="2">
-        <v>32.3</v>
+        <v>179.13</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="1">
-        <v>29.306</v>
-      </c>
-      <c r="C117" s="1">
-        <v>-81.694</v>
+      <c r="B117" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C117" s="2">
+        <v>32.3</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="1">
+        <v>29.306</v>
+      </c>
+      <c r="C118" s="1">
+        <v>-81.694</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="2">
         <v>-17.45</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C119" s="2">
         <v>168.18</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B119" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="C119" s="2">
-        <v>-66.9166666666666</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2702,10 +2715,10 @@
         <v>121</v>
       </c>
       <c r="B120" s="2">
-        <v>21.0333333333333</v>
+        <v>10.5</v>
       </c>
       <c r="C120" s="2">
-        <v>105.85</v>
+        <v>-66.9166666666666</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2713,10 +2726,10 @@
         <v>122</v>
       </c>
       <c r="B121" s="2">
-        <v>18.05</v>
+        <v>21.0333333333333</v>
       </c>
       <c r="C121" s="2">
-        <v>-64.05</v>
+        <v>105.85</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2724,10 +2737,10 @@
         <v>123</v>
       </c>
       <c r="B122" s="2">
-        <v>-13.2833333333333</v>
+        <v>18.05</v>
       </c>
       <c r="C122" s="2">
-        <v>-176.183333333333</v>
+        <v>-64.05</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2735,14 +2748,25 @@
         <v>124</v>
       </c>
       <c r="B123" s="2">
+        <v>-13.2833333333333</v>
+      </c>
+      <c r="C123" s="2">
+        <v>-176.183333333333</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" s="2">
         <v>15.552727</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C124" s="2">
         <v>48.516388</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C117" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C124" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:C124">

--- a/Data/Loca.GPS.xlsx
+++ b/Data/Loca.GPS.xlsx
@@ -1386,9 +1386,9 @@
   <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
